--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il1f5-Il1rl2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il1f5-Il1rl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il1f5</t>
+  </si>
+  <si>
+    <t>Il1rl2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il1f5</t>
-  </si>
-  <si>
-    <t>Il1rl2</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.023005</v>
+        <v>0.002564</v>
       </c>
       <c r="H2">
-        <v>3.069015</v>
+        <v>0.007692</v>
       </c>
       <c r="I2">
-        <v>0.9654317966192123</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9654317966192122</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8716926666666667</v>
+        <v>1.647356333333333</v>
       </c>
       <c r="N2">
-        <v>2.615078</v>
+        <v>4.942069</v>
       </c>
       <c r="O2">
-        <v>0.04770804699096992</v>
+        <v>0.0827916103617866</v>
       </c>
       <c r="P2">
-        <v>0.04770804699096991</v>
+        <v>0.08279161036178657</v>
       </c>
       <c r="Q2">
-        <v>0.8917459564633334</v>
+        <v>0.004223821638666666</v>
       </c>
       <c r="R2">
-        <v>8.025713608170001</v>
+        <v>0.038014394748</v>
       </c>
       <c r="S2">
-        <v>0.0460588655196859</v>
+        <v>0.0827916103617866</v>
       </c>
       <c r="T2">
-        <v>0.04605886551968588</v>
+        <v>0.08279161036178657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.023005</v>
+        <v>0.002564</v>
       </c>
       <c r="H3">
-        <v>3.069015</v>
+        <v>0.007692</v>
       </c>
       <c r="I3">
-        <v>0.9654317966192123</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9654317966192122</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>43.476152</v>
       </c>
       <c r="O3">
-        <v>0.7931550426421509</v>
+        <v>0.7283307125849131</v>
       </c>
       <c r="P3">
-        <v>0.7931550426421509</v>
+        <v>0.728330712584913</v>
       </c>
       <c r="Q3">
-        <v>14.82544029225333</v>
+        <v>0.03715761790933333</v>
       </c>
       <c r="R3">
-        <v>133.42896263028</v>
+        <v>0.334418561184</v>
       </c>
       <c r="S3">
-        <v>0.7657370978155996</v>
+        <v>0.7283307125849131</v>
       </c>
       <c r="T3">
-        <v>0.7657370978155996</v>
+        <v>0.728330712584913</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.023005</v>
+        <v>0.002564</v>
       </c>
       <c r="H4">
-        <v>3.069015</v>
+        <v>0.007692</v>
       </c>
       <c r="I4">
-        <v>0.9654317966192123</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9654317966192122</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.707225666666667</v>
+        <v>2.071776666666667</v>
       </c>
       <c r="N4">
-        <v>5.121677</v>
+        <v>6.21533</v>
       </c>
       <c r="O4">
-        <v>0.09343706267597748</v>
+        <v>0.1041218120649313</v>
       </c>
       <c r="P4">
-        <v>0.09343706267597748</v>
+        <v>0.1041218120649313</v>
       </c>
       <c r="Q4">
-        <v>1.746500393128334</v>
+        <v>0.005312035373333333</v>
       </c>
       <c r="R4">
-        <v>15.718503538155</v>
+        <v>0.04780831836</v>
       </c>
       <c r="S4">
-        <v>0.09020711129009089</v>
+        <v>0.1041218120649313</v>
       </c>
       <c r="T4">
-        <v>0.09020711129009087</v>
+        <v>0.1041218120649313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.023005</v>
+        <v>0.002564</v>
       </c>
       <c r="H5">
-        <v>3.069015</v>
+        <v>0.007692</v>
       </c>
       <c r="I5">
-        <v>0.9654317966192123</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9654317966192122</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.200428</v>
+        <v>1.686440333333333</v>
       </c>
       <c r="N5">
-        <v>3.601284</v>
+        <v>5.059321</v>
       </c>
       <c r="O5">
-        <v>0.06569984769090181</v>
+        <v>0.08475586498836914</v>
       </c>
       <c r="P5">
-        <v>0.0656998476909018</v>
+        <v>0.08475586498836912</v>
       </c>
       <c r="Q5">
-        <v>1.22804384614</v>
+        <v>0.004324033014666666</v>
       </c>
       <c r="R5">
-        <v>11.05239461526</v>
+        <v>0.038916297132</v>
       </c>
       <c r="S5">
-        <v>0.06342872199383595</v>
+        <v>0.08475586498836914</v>
       </c>
       <c r="T5">
-        <v>0.06342872199383592</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.03662966666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.109889</v>
-      </c>
-      <c r="I6">
-        <v>0.03456820338078784</v>
-      </c>
-      <c r="J6">
-        <v>0.03456820338078784</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.8716926666666667</v>
-      </c>
-      <c r="N6">
-        <v>2.615078</v>
-      </c>
-      <c r="O6">
-        <v>0.04770804699096992</v>
-      </c>
-      <c r="P6">
-        <v>0.04770804699096991</v>
-      </c>
-      <c r="Q6">
-        <v>0.03192981181577778</v>
-      </c>
-      <c r="R6">
-        <v>0.2873683063420001</v>
-      </c>
-      <c r="S6">
-        <v>0.001649181471284032</v>
-      </c>
-      <c r="T6">
-        <v>0.001649181471284032</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.03662966666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.109889</v>
-      </c>
-      <c r="I7">
-        <v>0.03456820338078784</v>
-      </c>
-      <c r="J7">
-        <v>0.03456820338078784</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>14.49205066666667</v>
-      </c>
-      <c r="N7">
-        <v>43.476152</v>
-      </c>
-      <c r="O7">
-        <v>0.7931550426421509</v>
-      </c>
-      <c r="P7">
-        <v>0.7931550426421509</v>
-      </c>
-      <c r="Q7">
-        <v>0.5308389852364445</v>
-      </c>
-      <c r="R7">
-        <v>4.777550867128</v>
-      </c>
-      <c r="S7">
-        <v>0.02741794482655133</v>
-      </c>
-      <c r="T7">
-        <v>0.02741794482655133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.03662966666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.109889</v>
-      </c>
-      <c r="I8">
-        <v>0.03456820338078784</v>
-      </c>
-      <c r="J8">
-        <v>0.03456820338078784</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.707225666666667</v>
-      </c>
-      <c r="N8">
-        <v>5.121677</v>
-      </c>
-      <c r="O8">
-        <v>0.09343706267597748</v>
-      </c>
-      <c r="P8">
-        <v>0.09343706267597748</v>
-      </c>
-      <c r="Q8">
-        <v>0.06253510709477779</v>
-      </c>
-      <c r="R8">
-        <v>0.562815963853</v>
-      </c>
-      <c r="S8">
-        <v>0.00322995138588661</v>
-      </c>
-      <c r="T8">
-        <v>0.00322995138588661</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.03662966666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.109889</v>
-      </c>
-      <c r="I9">
-        <v>0.03456820338078784</v>
-      </c>
-      <c r="J9">
-        <v>0.03456820338078784</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.200428</v>
-      </c>
-      <c r="N9">
-        <v>3.601284</v>
-      </c>
-      <c r="O9">
-        <v>0.06569984769090181</v>
-      </c>
-      <c r="P9">
-        <v>0.0656998476909018</v>
-      </c>
-      <c r="Q9">
-        <v>0.04397127749733334</v>
-      </c>
-      <c r="R9">
-        <v>0.3957414974760001</v>
-      </c>
-      <c r="S9">
-        <v>0.002271125697065879</v>
-      </c>
-      <c r="T9">
-        <v>0.002271125697065878</v>
+        <v>0.08475586498836912</v>
       </c>
     </row>
   </sheetData>
